--- a/1° Bimestre/Aula 0228/Exercicios/dicio_escola.xlsx
+++ b/1° Bimestre/Aula 0228/Exercicios/dicio_escola.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t xml:space="preserve">Tabela</t>
   </si>
@@ -64,10 +64,7 @@
     <t xml:space="preserve">RG do funcionário</t>
   </si>
   <si>
-    <t xml:space="preserve">Int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK, Check</t>
+    <t xml:space="preserve">PK</t>
   </si>
   <si>
     <t xml:space="preserve">CPF</t>
@@ -76,9 +73,6 @@
     <t xml:space="preserve">CPF do funcionário</t>
   </si>
   <si>
-    <t xml:space="preserve">Check</t>
-  </si>
-  <si>
     <t xml:space="preserve">CEP</t>
   </si>
   <si>
@@ -91,10 +85,46 @@
     <t xml:space="preserve">Sexo biológico do funcionário</t>
   </si>
   <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
     <t xml:space="preserve">EstCivil</t>
   </si>
   <si>
     <t xml:space="preserve">Estado civil do funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telefone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telefone do funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-mail do funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salário do funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo do funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idade do funcionário</t>
   </si>
 </sst>
 </file>
@@ -295,10 +325,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -414,7 +444,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -434,13 +464,15 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="n">
+        <v>30</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -449,20 +481,22 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="n">
+        <v>30</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -471,20 +505,22 @@
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="n">
+        <v>30</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -493,14 +529,14 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -515,14 +551,14 @@
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -535,8 +571,124 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="52">
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="A3:L3"/>
@@ -569,6 +721,26 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:L16"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/1° Bimestre/Aula 0228/Exercicios/dicio_escola.xlsx
+++ b/1° Bimestre/Aula 0228/Exercicios/dicio_escola.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t xml:space="preserve">Tabela</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">Idade do funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
   </si>
 </sst>
 </file>
@@ -328,7 +331,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,7 +677,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
